--- a/Team-Data/2011-12/1-15-2011-12.xlsx
+++ b/Team-Data/2011-12/1-15-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -765,7 +832,7 @@
         <v>7</v>
       </c>
       <c r="AK2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL2" t="n">
         <v>7</v>
@@ -777,7 +844,7 @@
         <v>5</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP2" t="n">
         <v>13</v>
@@ -807,10 +874,10 @@
         <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA2" t="n">
         <v>16</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-15-2011-12</t>
+          <t>2012-01-15</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE3" t="n">
         <v>19</v>
@@ -950,7 +1017,7 @@
         <v>9</v>
       </c>
       <c r="AL3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM3" t="n">
         <v>23</v>
@@ -959,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="AO3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP3" t="n">
         <v>18</v>
@@ -974,7 +1041,7 @@
         <v>26</v>
       </c>
       <c r="AT3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AU3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-15-2011-12</t>
+          <t>2012-01-15</t>
         </is>
       </c>
     </row>
@@ -1111,19 +1178,19 @@
         <v>3</v>
       </c>
       <c r="AE4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ4" t="n">
         <v>2</v>
@@ -1132,7 +1199,7 @@
         <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM4" t="n">
         <v>22</v>
@@ -1141,7 +1208,7 @@
         <v>18</v>
       </c>
       <c r="AO4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP4" t="n">
         <v>27</v>
@@ -1150,10 +1217,10 @@
         <v>9</v>
       </c>
       <c r="AR4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT4" t="n">
         <v>13</v>
@@ -1171,7 +1238,7 @@
         <v>10</v>
       </c>
       <c r="AY4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ4" t="n">
         <v>13</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-15-2011-12</t>
+          <t>2012-01-15</t>
         </is>
       </c>
     </row>
@@ -1305,10 +1372,10 @@
         <v>13</v>
       </c>
       <c r="AI5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>13</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>14</v>
       </c>
       <c r="AK5" t="n">
         <v>12</v>
@@ -1347,7 +1414,7 @@
         <v>10</v>
       </c>
       <c r="AW5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX5" t="n">
         <v>4</v>
@@ -1359,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="BA5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB5" t="n">
         <v>17</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-15-2011-12</t>
+          <t>2012-01-15</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>0.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
         <v>16</v>
@@ -1508,7 +1575,7 @@
         <v>13</v>
       </c>
       <c r="AP6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ6" t="n">
         <v>28</v>
@@ -1517,7 +1584,7 @@
         <v>6</v>
       </c>
       <c r="AS6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT6" t="n">
         <v>11</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-15-2011-12</t>
+          <t>2012-01-15</t>
         </is>
       </c>
     </row>
@@ -1657,13 +1724,13 @@
         <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
         <v>13</v>
@@ -1672,7 +1739,7 @@
         <v>20</v>
       </c>
       <c r="AJ7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK7" t="n">
         <v>17</v>
@@ -1693,7 +1760,7 @@
         <v>14</v>
       </c>
       <c r="AQ7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR7" t="n">
         <v>26</v>
@@ -1702,10 +1769,10 @@
         <v>6</v>
       </c>
       <c r="AT7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AU7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV7" t="n">
         <v>14</v>
@@ -1726,7 +1793,7 @@
         <v>20</v>
       </c>
       <c r="BB7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC7" t="n">
         <v>9</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-15-2011-12</t>
+          <t>2012-01-15</t>
         </is>
       </c>
     </row>
@@ -1758,94 +1825,94 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>0.615</v>
+        <v>0.667</v>
       </c>
       <c r="H8" t="n">
         <v>48</v>
       </c>
       <c r="I8" t="n">
-        <v>38.2</v>
+        <v>38.8</v>
       </c>
       <c r="J8" t="n">
-        <v>78.5</v>
+        <v>78.8</v>
       </c>
       <c r="K8" t="n">
-        <v>0.487</v>
+        <v>0.492</v>
       </c>
       <c r="L8" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M8" t="n">
-        <v>19.8</v>
+        <v>20.1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.335</v>
+        <v>0.332</v>
       </c>
       <c r="O8" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="P8" t="n">
-        <v>28.1</v>
+        <v>27.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.748</v>
+        <v>0.758</v>
       </c>
       <c r="R8" t="n">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S8" t="n">
-        <v>31.5</v>
+        <v>31.8</v>
       </c>
       <c r="T8" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="U8" t="n">
-        <v>24</v>
+        <v>24.3</v>
       </c>
       <c r="V8" t="n">
         <v>16.3</v>
       </c>
       <c r="W8" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="X8" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Y8" t="n">
         <v>5.7</v>
       </c>
       <c r="Z8" t="n">
-        <v>18.2</v>
+        <v>17.8</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.2</v>
+        <v>22.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.1</v>
+        <v>104.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.4</v>
+        <v>6.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="n">
         <v>13</v>
@@ -1854,7 +1921,7 @@
         <v>4</v>
       </c>
       <c r="AJ8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK8" t="n">
         <v>1</v>
@@ -1863,25 +1930,25 @@
         <v>12</v>
       </c>
       <c r="AM8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>11</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>14</v>
       </c>
       <c r="AR8" t="n">
         <v>30</v>
       </c>
       <c r="AS8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT8" t="n">
         <v>25</v>
@@ -1896,22 +1963,22 @@
         <v>1</v>
       </c>
       <c r="AX8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB8" t="n">
         <v>2</v>
       </c>
       <c r="BC8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-15-2011-12</t>
+          <t>2012-01-15</t>
         </is>
       </c>
     </row>
@@ -1940,100 +2007,100 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" t="n">
-        <v>0.231</v>
+        <v>0.25</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="J9" t="n">
-        <v>77</v>
+        <v>77.3</v>
       </c>
       <c r="K9" t="n">
         <v>0.425</v>
       </c>
       <c r="L9" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="M9" t="n">
-        <v>13.5</v>
+        <v>13.1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.358</v>
+        <v>0.357</v>
       </c>
       <c r="O9" t="n">
-        <v>15.2</v>
+        <v>14.6</v>
       </c>
       <c r="P9" t="n">
-        <v>18.9</v>
+        <v>18.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.801</v>
+        <v>0.795</v>
       </c>
       <c r="R9" t="n">
-        <v>10.5</v>
+        <v>10.8</v>
       </c>
       <c r="S9" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="T9" t="n">
-        <v>37.6</v>
+        <v>38.1</v>
       </c>
       <c r="U9" t="n">
-        <v>18.9</v>
+        <v>18.6</v>
       </c>
       <c r="V9" t="n">
-        <v>16.4</v>
+        <v>16.7</v>
       </c>
       <c r="W9" t="n">
         <v>6.6</v>
       </c>
       <c r="X9" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z9" t="n">
         <v>18.9</v>
       </c>
       <c r="AA9" t="n">
-        <v>18.1</v>
+        <v>17.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>85.40000000000001</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>-9.199999999999999</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG9" t="n">
         <v>26</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>27</v>
       </c>
       <c r="AH9" t="n">
         <v>13</v>
       </c>
       <c r="AI9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ9" t="n">
         <v>27</v>
@@ -2042,34 +2109,34 @@
         <v>25</v>
       </c>
       <c r="AL9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN9" t="n">
         <v>12</v>
       </c>
       <c r="AO9" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AP9" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR9" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AS9" t="n">
         <v>29</v>
       </c>
       <c r="AT9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AU9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV9" t="n">
         <v>28</v>
@@ -2081,19 +2148,19 @@
         <v>30</v>
       </c>
       <c r="AY9" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AZ9" t="n">
         <v>8</v>
       </c>
       <c r="BA9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB9" t="n">
         <v>29</v>
       </c>
       <c r="BC9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-15-2011-12</t>
+          <t>2012-01-15</t>
         </is>
       </c>
     </row>
@@ -2122,118 +2189,118 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
         <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>0.333</v>
+        <v>0.273</v>
       </c>
       <c r="H10" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I10" t="n">
-        <v>35.9</v>
+        <v>35.7</v>
       </c>
       <c r="J10" t="n">
-        <v>79.8</v>
+        <v>80.5</v>
       </c>
       <c r="K10" t="n">
-        <v>0.45</v>
+        <v>0.444</v>
       </c>
       <c r="L10" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="M10" t="n">
-        <v>18.7</v>
+        <v>19</v>
       </c>
       <c r="N10" t="n">
-        <v>0.326</v>
+        <v>0.335</v>
       </c>
       <c r="O10" t="n">
-        <v>16.9</v>
+        <v>16.6</v>
       </c>
       <c r="P10" t="n">
-        <v>23.4</v>
+        <v>23.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.722</v>
+        <v>0.72</v>
       </c>
       <c r="R10" t="n">
         <v>10.8</v>
       </c>
       <c r="S10" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="T10" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U10" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="V10" t="n">
         <v>15.4</v>
       </c>
       <c r="W10" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X10" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z10" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>-5.9</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE10" t="n">
         <v>25</v>
       </c>
-      <c r="AA10" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>94.8</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>-4.8</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>19</v>
-      </c>
       <c r="AF10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AH10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK10" t="n">
         <v>14</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>11</v>
-      </c>
       <c r="AL10" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AM10" t="n">
         <v>14</v>
       </c>
       <c r="AN10" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AO10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP10" t="n">
         <v>17</v>
@@ -2242,25 +2309,25 @@
         <v>22</v>
       </c>
       <c r="AR10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT10" t="n">
         <v>19</v>
       </c>
       <c r="AU10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY10" t="n">
         <v>6</v>
@@ -2269,13 +2336,13 @@
         <v>30</v>
       </c>
       <c r="BA10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-15-2011-12</t>
+          <t>2012-01-15</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>-2.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
         <v>16</v>
@@ -2412,7 +2479,7 @@
         <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO11" t="n">
         <v>30</v>
@@ -2433,19 +2500,19 @@
         <v>5</v>
       </c>
       <c r="AU11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW11" t="n">
         <v>25</v>
       </c>
       <c r="AX11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ11" t="n">
         <v>24</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-15-2011-12</t>
+          <t>2012-01-15</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>4.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
         <v>3</v>
@@ -2576,13 +2643,13 @@
         <v>3</v>
       </c>
       <c r="AH12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI12" t="n">
         <v>25</v>
       </c>
       <c r="AJ12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK12" t="n">
         <v>27</v>
@@ -2597,19 +2664,19 @@
         <v>4</v>
       </c>
       <c r="AO12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP12" t="n">
         <v>6</v>
       </c>
       <c r="AQ12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR12" t="n">
         <v>4</v>
       </c>
       <c r="AS12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT12" t="n">
         <v>4</v>
@@ -2627,7 +2694,7 @@
         <v>5</v>
       </c>
       <c r="AY12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ12" t="n">
         <v>21</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-15-2011-12</t>
+          <t>2012-01-15</t>
         </is>
       </c>
     </row>
@@ -2755,13 +2822,13 @@
         <v>3</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH13" t="n">
         <v>4</v>
       </c>
       <c r="AI13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ13" t="n">
         <v>19</v>
@@ -2773,10 +2840,10 @@
         <v>13</v>
       </c>
       <c r="AM13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO13" t="n">
         <v>9</v>
@@ -2797,7 +2864,7 @@
         <v>28</v>
       </c>
       <c r="AU13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV13" t="n">
         <v>2</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-15-2011-12</t>
+          <t>2012-01-15</t>
         </is>
       </c>
     </row>
@@ -2934,7 +3001,7 @@
         <v>3</v>
       </c>
       <c r="AF14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG14" t="n">
         <v>11</v>
@@ -2943,7 +3010,7 @@
         <v>12</v>
       </c>
       <c r="AI14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ14" t="n">
         <v>23</v>
@@ -2967,7 +3034,7 @@
         <v>16</v>
       </c>
       <c r="AQ14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR14" t="n">
         <v>12</v>
@@ -3000,7 +3067,7 @@
         <v>12</v>
       </c>
       <c r="BB14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC14" t="n">
         <v>11</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-15-2011-12</t>
+          <t>2012-01-15</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-1.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE15" t="n">
         <v>16</v>
@@ -3125,7 +3192,7 @@
         <v>13</v>
       </c>
       <c r="AI15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ15" t="n">
         <v>10</v>
@@ -3149,13 +3216,13 @@
         <v>15</v>
       </c>
       <c r="AQ15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR15" t="n">
         <v>11</v>
       </c>
       <c r="AS15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AT15" t="n">
         <v>12</v>
@@ -3170,7 +3237,7 @@
         <v>4</v>
       </c>
       <c r="AX15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY15" t="n">
         <v>28</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-15-2011-12</t>
+          <t>2012-01-15</t>
         </is>
       </c>
     </row>
@@ -3292,16 +3359,16 @@
         <v>6.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF16" t="n">
         <v>7</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH16" t="n">
         <v>1</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-15-2011-12</t>
+          <t>2012-01-15</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-3</v>
       </c>
       <c r="AD17" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
@@ -3489,7 +3556,7 @@
         <v>13</v>
       </c>
       <c r="AI17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ17" t="n">
         <v>5</v>
@@ -3498,7 +3565,7 @@
         <v>22</v>
       </c>
       <c r="AL17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM17" t="n">
         <v>13</v>
@@ -3537,7 +3604,7 @@
         <v>26</v>
       </c>
       <c r="AY17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ17" t="n">
         <v>18</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-15-2011-12</t>
+          <t>2012-01-15</t>
         </is>
       </c>
     </row>
@@ -3656,16 +3723,16 @@
         <v>0.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE18" t="n">
         <v>19</v>
       </c>
       <c r="AF18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH18" t="n">
         <v>13</v>
@@ -3686,7 +3753,7 @@
         <v>4</v>
       </c>
       <c r="AN18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO18" t="n">
         <v>8</v>
@@ -3728,7 +3795,7 @@
         <v>6</v>
       </c>
       <c r="BB18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC18" t="n">
         <v>14</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-15-2011-12</t>
+          <t>2012-01-15</t>
         </is>
       </c>
     </row>
@@ -3841,13 +3908,13 @@
         <v>3</v>
       </c>
       <c r="AE19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH19" t="n">
         <v>13</v>
@@ -3871,7 +3938,7 @@
         <v>9</v>
       </c>
       <c r="AO19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP19" t="n">
         <v>19</v>
@@ -3901,7 +3968,7 @@
         <v>25</v>
       </c>
       <c r="AY19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ19" t="n">
         <v>20</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-15-2011-12</t>
+          <t>2012-01-15</t>
         </is>
       </c>
     </row>
@@ -4020,10 +4087,10 @@
         <v>-4.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF20" t="n">
         <v>24</v>
@@ -4071,13 +4138,13 @@
         <v>3</v>
       </c>
       <c r="AU20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX20" t="n">
         <v>11</v>
@@ -4095,7 +4162,7 @@
         <v>27</v>
       </c>
       <c r="BC20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-15-2011-12</t>
+          <t>2012-01-15</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-0.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
         <v>14</v>
@@ -4244,7 +4311,7 @@
         <v>5</v>
       </c>
       <c r="AR21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS21" t="n">
         <v>23</v>
@@ -4265,7 +4332,7 @@
         <v>24</v>
       </c>
       <c r="AY21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ21" t="n">
         <v>26</v>
@@ -4277,7 +4344,7 @@
         <v>18</v>
       </c>
       <c r="BC21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-15-2011-12</t>
+          <t>2012-01-15</t>
         </is>
       </c>
     </row>
@@ -4420,7 +4487,7 @@
         <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-15-2011-12</t>
+          <t>2012-01-15</t>
         </is>
       </c>
     </row>
@@ -4566,10 +4633,10 @@
         <v>5</v>
       </c>
       <c r="AD23" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF23" t="n">
         <v>3</v>
@@ -4581,7 +4648,7 @@
         <v>13</v>
       </c>
       <c r="AI23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ23" t="n">
         <v>26</v>
@@ -4596,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP23" t="n">
         <v>8</v>
@@ -4608,13 +4675,13 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU23" t="n">
         <v>7</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-15-2011-12</t>
+          <t>2012-01-15</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>15.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
         <v>3</v>
@@ -4772,7 +4839,7 @@
         <v>3</v>
       </c>
       <c r="AL24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM24" t="n">
         <v>19</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-15-2011-12</t>
+          <t>2012-01-15</t>
         </is>
       </c>
     </row>
@@ -4852,94 +4919,94 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
       </c>
       <c r="F25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G25" t="n">
-        <v>0.333</v>
+        <v>0.364</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J25" t="n">
-        <v>81.40000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="K25" t="n">
-        <v>0.446</v>
+        <v>0.449</v>
       </c>
       <c r="L25" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M25" t="n">
-        <v>20.4</v>
+        <v>20.9</v>
       </c>
       <c r="N25" t="n">
-        <v>0.327</v>
+        <v>0.326</v>
       </c>
       <c r="O25" t="n">
-        <v>14.5</v>
+        <v>14.9</v>
       </c>
       <c r="P25" t="n">
-        <v>18.5</v>
+        <v>18.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.784</v>
+        <v>0.788</v>
       </c>
       <c r="R25" t="n">
         <v>10.5</v>
       </c>
       <c r="S25" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="T25" t="n">
         <v>41.2</v>
       </c>
       <c r="U25" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V25" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="W25" t="n">
         <v>6.7</v>
       </c>
       <c r="X25" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.3</v>
+        <v>20.7</v>
       </c>
       <c r="AB25" t="n">
-        <v>93.8</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>-1.5</v>
+        <v>-0.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AE25" t="n">
         <v>19</v>
       </c>
       <c r="AF25" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AG25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH25" t="n">
         <v>13</v>
@@ -4948,49 +5015,49 @@
         <v>12</v>
       </c>
       <c r="AJ25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK25" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AL25" t="n">
         <v>11</v>
       </c>
       <c r="AM25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP25" t="n">
         <v>28</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>29</v>
       </c>
       <c r="AQ25" t="n">
         <v>7</v>
       </c>
       <c r="AR25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT25" t="n">
         <v>23</v>
       </c>
       <c r="AU25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX25" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AY25" t="n">
         <v>4</v>
@@ -5002,10 +5069,10 @@
         <v>17</v>
       </c>
       <c r="BB25" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BC25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-15-2011-12</t>
+          <t>2012-01-15</t>
         </is>
       </c>
     </row>
@@ -5112,19 +5179,19 @@
         <v>2.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG26" t="n">
         <v>14</v>
       </c>
       <c r="AH26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI26" t="n">
         <v>7</v>
@@ -5139,7 +5206,7 @@
         <v>18</v>
       </c>
       <c r="AM26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN26" t="n">
         <v>21</v>
@@ -5148,13 +5215,13 @@
         <v>6</v>
       </c>
       <c r="AP26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ26" t="n">
         <v>6</v>
       </c>
       <c r="AR26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS26" t="n">
         <v>19</v>
@@ -5163,10 +5230,10 @@
         <v>17</v>
       </c>
       <c r="AU26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW26" t="n">
         <v>9</v>
@@ -5181,7 +5248,7 @@
         <v>21</v>
       </c>
       <c r="BA26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB26" t="n">
         <v>7</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-15-2011-12</t>
+          <t>2012-01-15</t>
         </is>
       </c>
     </row>
@@ -5303,13 +5370,13 @@
         <v>24</v>
       </c>
       <c r="AG27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH27" t="n">
         <v>13</v>
       </c>
       <c r="AI27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ27" t="n">
         <v>4</v>
@@ -5321,7 +5388,7 @@
         <v>22</v>
       </c>
       <c r="AM27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN27" t="n">
         <v>29</v>
@@ -5354,7 +5421,7 @@
         <v>15</v>
       </c>
       <c r="AX27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY27" t="n">
         <v>13</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-15-2011-12</t>
+          <t>2012-01-15</t>
         </is>
       </c>
     </row>
@@ -5398,58 +5465,58 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" t="n">
         <v>4</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.667</v>
       </c>
       <c r="H28" t="n">
         <v>48.4</v>
       </c>
       <c r="I28" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="J28" t="n">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.471</v>
+        <v>0.469</v>
       </c>
       <c r="L28" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="M28" t="n">
         <v>19.5</v>
       </c>
       <c r="N28" t="n">
-        <v>0.399</v>
+        <v>0.41</v>
       </c>
       <c r="O28" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="P28" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.718</v>
+        <v>0.716</v>
       </c>
       <c r="R28" t="n">
-        <v>10.4</v>
+        <v>10.6</v>
       </c>
       <c r="S28" t="n">
-        <v>31.5</v>
+        <v>30.8</v>
       </c>
       <c r="T28" t="n">
-        <v>41.8</v>
+        <v>41.3</v>
       </c>
       <c r="U28" t="n">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="V28" t="n">
         <v>14.2</v>
@@ -5458,37 +5525,37 @@
         <v>6.9</v>
       </c>
       <c r="X28" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.4</v>
+        <v>17.6</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="AB28" t="n">
         <v>100.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AF28" t="n">
         <v>7</v>
       </c>
       <c r="AG28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI28" t="n">
         <v>3</v>
@@ -5506,10 +5573,10 @@
         <v>12</v>
       </c>
       <c r="AN28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP28" t="n">
         <v>22</v>
@@ -5518,13 +5585,13 @@
         <v>24</v>
       </c>
       <c r="AR28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS28" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AT28" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
@@ -5533,25 +5600,25 @@
         <v>8</v>
       </c>
       <c r="AW28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY28" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AZ28" t="n">
         <v>2</v>
       </c>
       <c r="BA28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB28" t="n">
         <v>4</v>
       </c>
       <c r="BC28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-15-2011-12</t>
+          <t>2012-01-15</t>
         </is>
       </c>
     </row>
@@ -5667,7 +5734,7 @@
         <v>24</v>
       </c>
       <c r="AG29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH29" t="n">
         <v>13</v>
@@ -5697,7 +5764,7 @@
         <v>25</v>
       </c>
       <c r="AQ29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR29" t="n">
         <v>25</v>
@@ -5712,7 +5779,7 @@
         <v>19</v>
       </c>
       <c r="AV29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW29" t="n">
         <v>26</v>
@@ -5724,7 +5791,7 @@
         <v>7</v>
       </c>
       <c r="AZ29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA29" t="n">
         <v>29</v>
@@ -5733,7 +5800,7 @@
         <v>28</v>
       </c>
       <c r="BC29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-15-2011-12</t>
+          <t>2012-01-15</t>
         </is>
       </c>
     </row>
@@ -5762,49 +5829,49 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" t="n">
         <v>4</v>
       </c>
       <c r="G30" t="n">
-        <v>0.667</v>
+        <v>0.636</v>
       </c>
       <c r="H30" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I30" t="n">
-        <v>36.6</v>
+        <v>35.9</v>
       </c>
       <c r="J30" t="n">
-        <v>80.5</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.454</v>
+        <v>0.448</v>
       </c>
       <c r="L30" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="M30" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="N30" t="n">
-        <v>0.28</v>
+        <v>0.276</v>
       </c>
       <c r="O30" t="n">
-        <v>17.8</v>
+        <v>18.2</v>
       </c>
       <c r="P30" t="n">
-        <v>25</v>
+        <v>25.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.713</v>
+        <v>0.714</v>
       </c>
       <c r="R30" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S30" t="n">
         <v>31.3</v>
@@ -5813,109 +5880,109 @@
         <v>42.5</v>
       </c>
       <c r="U30" t="n">
-        <v>21.6</v>
+        <v>21.1</v>
       </c>
       <c r="V30" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W30" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="X30" t="n">
         <v>6.8</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z30" t="n">
-        <v>24.2</v>
+        <v>23.6</v>
       </c>
       <c r="AA30" t="n">
         <v>21.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>-0.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AE30" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AF30" t="n">
         <v>7</v>
       </c>
       <c r="AG30" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AH30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI30" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AJ30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL30" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AM30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AO30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP30" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AQ30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR30" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AS30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT30" t="n">
         <v>14</v>
       </c>
       <c r="AU30" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AV30" t="n">
         <v>6</v>
       </c>
       <c r="AW30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX30" t="n">
         <v>2</v>
       </c>
       <c r="AY30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA30" t="n">
         <v>11</v>
       </c>
       <c r="BB30" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BC30" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-15-2011-12</t>
+          <t>2012-01-15</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-12.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
@@ -6064,7 +6131,7 @@
         <v>27</v>
       </c>
       <c r="AR31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS31" t="n">
         <v>24</v>
@@ -6079,7 +6146,7 @@
         <v>15</v>
       </c>
       <c r="AW31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX31" t="n">
         <v>1</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-15-2011-12</t>
+          <t>2012-01-15</t>
         </is>
       </c>
     </row>
